--- a/fifa 17.xlsx
+++ b/fifa 17.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="490">
   <si>
     <t>Treinamento</t>
   </si>
@@ -897,7 +897,7 @@
     <t>confira minha transmissão do meu playstation 4 #ps4live fifa 17 live at https://tco/adajzsyfif</t>
   </si>
   <si>
-    <t xml:space="preserve">gostei de um vídeo @youtube https://tco/n16zhfo9jk tensoooo  fifa 17 the journey #20 ps4 </t>
+    <t xml:space="preserve">gostei de um vídeo @youtube https://tco/n16zhfo9jk tensoooo fifa 17 the journey #20 ps4 </t>
   </si>
   <si>
     <t>xbox one 500gb microsoft 1 controle – jogo fifa 17 + 1 mês de ea access bivolt https://tco/2m2zxb8aeu</t>
@@ -906,7 +906,7 @@
     <t>gostei de um vídeo @youtube https://tco/9wocgnhp8m 20 melhores times do mundo em uma liga fifa 17 experimento</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/jq3hbgq5dy titulares  fifa 17 the journey #11 [xbox one]</t>
+    <t>gostei de um vídeo @youtube https://tco/jq3hbgq5dy titulares fifa 17 the journey #11 [xbox one]</t>
   </si>
   <si>
     <t>gostei de um vídeo @youtube https://tco/kyzlezzdh0 x italia eliminatórias da copa 2018 02/09/17 fifa 17</t>
@@ -918,7 +918,7 @@
     <t>ngm tem um fifa 17 pra me emprestar não :/</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/inxzkutynp isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp</t>
+    <t>gostei de um vídeo @youtube https://tco/inxzkutynp isso fiz um gol de trás do meio do campo fifa 17 ultimate team sp</t>
   </si>
   <si>
     <t>fifa 17 final antecipada jogo incrível contra atlético modo carreira treinador #19 https://tco/ouhsvx8vsk https://tco/0uovmpxihe</t>
@@ -975,7 +975,7 @@
     <t>fifa 17 final antecipada jogo incrível contra atlético modo carreira treinador #19 https://tco/ouhsvx8vsk https://tco/bzvgdjf7pl</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/afpkdkjkhy chegou mais contratações  modo carreira fifa 17 | ep76</t>
+    <t>gostei de um vídeo @youtube https://tco/afpkdkjkhy chegou mais contratações modo carreira fifa 17 | ep76</t>
   </si>
   <si>
     <t>confira minha transmissão do meu playstation 4 #ps4live fifa 17 live at https://tco/nr9bbiaaxa</t>
@@ -987,7 +987,7 @@
     <t>vou dar um gasto no fifa 17</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/f4z0reedww isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp</t>
+    <t>gostei de um vídeo @youtube https://tco/f4z0reedww isso fiz um gol de trás do meio do campo fifa 17 ultimate team sp</t>
   </si>
   <si>
     <t>alguém me empresta fifa 17 pelo amor de deus</t>
@@ -1053,10 +1053,7 @@
     <t>rt @xandeprogamer: gostei de um vídeo @youtube https://tco/yj75o9zxwf na premiação semanal fifa 17 weekend league xbox one</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/nurx5mnnsi em decadência  fifa 17 carreira manager ep226</t>
-  </si>
-  <si>
-    <t>rt @milkguilherme: olha isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp ep 28: https://tco/06tygv1509 via @yo…</t>
+    <t>gostei de um vídeo @youtube https://tco/nurx5mnnsi em decadência fifa 17 carreira manager ep226</t>
   </si>
   <si>
     <t>rt @felipepdasilva_: muuh sai da merda do seu time no fifa 17 se demite 😤</t>
@@ -1152,7 +1149,7 @@
     <t>gostei de um vídeo @youtube https://tco/zugipm4iil ao vivo hd fifa 17 online # river plate ps4 pro 1080p 60fps</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/rlo4ma6ws8 isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp</t>
+    <t>gostei de um vídeo @youtube https://tco/rlo4ma6ws8 isso fiz um gol de trás do meio do campo fifa 17 ultimate team sp</t>
   </si>
   <si>
     <t>rt @willjr01: fifa 17 modo carreira ao vivo / caen malherbe/ temporada 3 https://tco/s9sw7ohcpu via @youtube</t>
@@ -1228,7 +1225,7 @@
     <t>gostei de um vídeo @youtube https://tco/gc66vpv6yi carreira brasileirão fifa 17 time da virada ep10</t>
   </si>
   <si>
-    <t>olha isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp ep 28: https://tco/06tygv1509 via @youtube</t>
+    <t>olha isso fiz um gol de trás do meio do campo fifa 17 ultimate team sp ep 28: https://tco/06tygv1509 via @youtube</t>
   </si>
   <si>
     <t>qdo me chamam para jogar fifa 17 https://tco/dl9ntsicdv</t>
@@ -1285,7 +1282,7 @@
 https://tco/vv42zxjzan https://tco/iakvjtmegh</t>
   </si>
   <si>
-    <t>melhor jogador do ano  fifa 17 modo carreira jogador #91 https://tco/hx8bsl2jlf via @youtube</t>
+    <t>melhor jogador do ano fifa 17 modo carreira jogador #91 https://tco/hx8bsl2jlf via @youtube</t>
   </si>
   <si>
     <t>transferências ✅ mcmdm | dia 1 t8 | fifa 17
@@ -1369,7 +1366,7 @@
     <t>gostei de um vídeo @youtube https://tco/vpu8jqu52e quer deli alli vendo | fifa 17 modo carreira milan#29</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/qsmael09uj isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp</t>
+    <t>gostei de um vídeo @youtube https://tco/qsmael09uj isso fiz um gol de trás do meio do campo fifa 17 ultimate team sp</t>
   </si>
   <si>
     <t>[live] fifa 17 jogando modo carreira com atl de madrid loots: https://tco/xy2tbev7n5 via @youtube</t>
@@ -1483,10 +1480,10 @@
     <t>eu juro que acabei de marcar quase meu melhor golo do fifa 17</t>
   </si>
   <si>
-    <t>gostei de um vídeo @youtube https://tco/vajjhvq4sw isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp</t>
-  </si>
-  <si>
-    <t>gostei de um vídeo @youtube https://tco/as1mpnyce8 isso fiz um gol de trás do meio do campo  fifa 17 ultimate team sp</t>
+    <t>gostei de um vídeo @youtube https://tco/vajjhvq4sw isso fiz um gol de trás do meio do campo fifa 17 ultimate team sp</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://tco/as1mpnyce8 isso fiz um gol de trás do meio do campo fifa 17 ultimate team sp</t>
   </si>
   <si>
     <t>@sepaulaca ele tava jogando fifa 17 qdo mandou áudio kkkkkkk</t>
@@ -5235,10 +5232,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5255,10 +5252,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5275,10 +5272,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5295,10 +5292,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5315,10 +5312,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5335,10 +5332,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5355,10 +5352,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5375,10 +5372,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5395,10 +5392,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5415,10 +5412,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5435,10 +5432,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5455,10 +5452,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5475,10 +5472,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5495,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5515,10 +5512,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5535,10 +5532,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5555,10 +5552,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5575,10 +5572,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5595,10 +5592,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5615,10 +5612,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5635,10 +5632,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5655,10 +5652,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5675,10 +5672,10 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5695,10 +5692,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5715,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5735,10 +5732,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5755,10 +5752,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5775,10 +5772,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5795,10 +5792,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5815,10 +5812,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5835,10 +5832,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5855,10 +5852,10 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5875,10 +5872,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5895,10 +5892,10 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5915,10 +5912,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5935,10 +5932,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5955,10 +5952,10 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5975,10 +5972,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5995,10 +5992,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6015,10 +6012,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6035,10 +6032,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6055,10 +6052,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6075,10 +6072,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6095,10 +6092,10 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6115,10 +6112,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6135,10 +6132,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F47" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6155,10 +6152,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6175,10 +6172,10 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F49" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6195,10 +6192,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6215,10 +6212,10 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6235,10 +6232,10 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F52" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6255,10 +6252,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F53" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6275,10 +6272,10 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6295,10 +6292,10 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6315,10 +6312,10 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F56" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6326,7 +6323,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6335,10 +6332,10 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6346,7 +6343,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6355,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6366,7 +6363,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6375,10 +6372,10 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F59" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6386,7 +6383,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6395,10 +6392,10 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6406,7 +6403,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6415,10 +6412,10 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6426,7 +6423,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6435,10 +6432,10 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6446,7 +6443,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6455,10 +6452,10 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F63" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6466,7 +6463,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6475,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6486,7 +6483,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6495,10 +6492,10 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6506,7 +6503,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6515,10 +6512,10 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6526,7 +6523,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6535,10 +6532,10 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6546,7 +6543,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6555,10 +6552,10 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F68" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6566,7 +6563,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6575,10 +6572,10 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6586,7 +6583,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6595,10 +6592,10 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6606,7 +6603,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6615,10 +6612,10 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6626,7 +6623,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6635,10 +6632,10 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6646,7 +6643,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6655,10 +6652,10 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F73" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6666,7 +6663,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6675,10 +6672,10 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6686,7 +6683,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6695,10 +6692,10 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F75" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6706,7 +6703,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6715,10 +6712,10 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F76" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6726,7 +6723,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6735,10 +6732,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6746,7 +6743,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6755,10 +6752,10 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F78" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6766,7 +6763,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6775,10 +6772,10 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6786,7 +6783,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6795,10 +6792,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6806,7 +6803,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -6815,10 +6812,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F81" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6826,7 +6823,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6835,10 +6832,10 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F82" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6846,7 +6843,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -6855,10 +6852,10 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F83" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6866,7 +6863,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6875,10 +6872,10 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6886,7 +6883,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6895,10 +6892,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6906,7 +6903,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -6915,10 +6912,10 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6926,7 +6923,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6935,10 +6932,10 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6946,7 +6943,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -6955,10 +6952,10 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F88" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6966,7 +6963,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -6975,10 +6972,10 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6986,7 +6983,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -6995,10 +6992,10 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -7006,7 +7003,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7015,10 +7012,10 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F91" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -7026,7 +7023,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -7035,10 +7032,10 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F92" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7046,7 +7043,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7055,10 +7052,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F93" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -7066,7 +7063,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7075,10 +7072,10 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F94" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7086,7 +7083,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -7095,10 +7092,10 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F95" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -7106,7 +7103,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -7115,10 +7112,10 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F96" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7126,7 +7123,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -7135,10 +7132,10 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F97" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7146,7 +7143,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -7155,10 +7152,10 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F98" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7166,7 +7163,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -7175,10 +7172,10 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7186,7 +7183,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7195,10 +7192,10 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F100" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7206,7 +7203,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7215,10 +7212,10 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F101" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7226,7 +7223,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -7235,10 +7232,10 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F102" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7246,7 +7243,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -7255,10 +7252,10 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F103" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7266,7 +7263,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -7275,10 +7272,10 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7286,7 +7283,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -7295,10 +7292,10 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F105" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7306,7 +7303,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -7315,10 +7312,10 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7326,7 +7323,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -7335,10 +7332,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F107" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7346,7 +7343,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -7355,10 +7352,10 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F108" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7366,7 +7363,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -7375,10 +7372,10 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F109" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7386,7 +7383,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -7395,10 +7392,10 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F110" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7406,7 +7403,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -7415,10 +7412,10 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F111" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7426,7 +7423,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -7435,10 +7432,10 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7446,7 +7443,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -7455,10 +7452,10 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F113" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7466,7 +7463,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -7475,10 +7472,10 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F114" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7486,7 +7483,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -7495,10 +7492,10 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F115" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7506,7 +7503,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7515,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F116" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7526,7 +7523,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -7535,10 +7532,10 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F117" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7546,7 +7543,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -7555,10 +7552,10 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F118" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7566,7 +7563,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -7575,10 +7572,10 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F119" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7586,7 +7583,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7595,10 +7592,10 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F120" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7606,7 +7603,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -7615,10 +7612,10 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F121" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7626,7 +7623,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -7635,10 +7632,10 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F122" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7646,7 +7643,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -7655,10 +7652,10 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F123" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7666,7 +7663,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -7675,10 +7672,10 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F124" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7686,7 +7683,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -7695,10 +7692,10 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F125" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7706,7 +7703,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -7715,10 +7712,10 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F126" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7726,7 +7723,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -7735,10 +7732,10 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F127" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7755,10 +7752,10 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F128" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7766,7 +7763,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -7775,10 +7772,10 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F129" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7786,7 +7783,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -7795,10 +7792,10 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F130" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7806,7 +7803,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -7815,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F131" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7826,7 +7823,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -7835,10 +7832,10 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F132" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7846,7 +7843,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -7855,10 +7852,10 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F133" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7866,7 +7863,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -7875,10 +7872,10 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F134" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7886,7 +7883,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -7895,10 +7892,10 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F135" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7906,7 +7903,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -7915,10 +7912,10 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F136" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7926,7 +7923,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -7935,10 +7932,10 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F137" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7946,7 +7943,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -7955,10 +7952,10 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F138" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7966,7 +7963,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -7975,10 +7972,10 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F139" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7986,7 +7983,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -7995,10 +7992,10 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F140" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -8006,7 +8003,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -8015,10 +8012,10 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F141" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -8035,10 +8032,10 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F142" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -8046,7 +8043,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -8055,10 +8052,10 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F143" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -8066,7 +8063,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -8075,10 +8072,10 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F144" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -8086,7 +8083,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -8095,10 +8092,10 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F145" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -8106,7 +8103,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -8115,10 +8112,10 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F146" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8135,10 +8132,10 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F147" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8146,7 +8143,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -8155,10 +8152,10 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F148" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8166,7 +8163,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -8175,10 +8172,10 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F149" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8186,7 +8183,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -8195,10 +8192,10 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F150" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -8206,7 +8203,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -8215,10 +8212,10 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F151" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8226,7 +8223,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -8235,10 +8232,10 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F152" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -8246,7 +8243,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -8255,10 +8252,10 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F153" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -8266,7 +8263,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -8275,10 +8272,10 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F154" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -8286,7 +8283,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -8295,10 +8292,10 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F155" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -8306,7 +8303,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -8315,10 +8312,10 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F156" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -8326,7 +8323,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -8335,10 +8332,10 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F157" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -8346,7 +8343,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -8355,10 +8352,10 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F158" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -8366,7 +8363,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -8375,10 +8372,10 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F159" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -8386,7 +8383,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -8395,10 +8392,10 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F160" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -8406,7 +8403,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -8415,10 +8412,10 @@
         <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F161" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -8426,7 +8423,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -8435,10 +8432,10 @@
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F162" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -8446,7 +8443,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -8455,10 +8452,10 @@
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F163" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -8466,7 +8463,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -8475,10 +8472,10 @@
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F164" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -8486,7 +8483,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -8495,10 +8492,10 @@
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F165" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -8506,7 +8503,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -8515,10 +8512,10 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F166" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -8526,7 +8523,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -8535,10 +8532,10 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F167" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -8555,10 +8552,10 @@
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F168" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -8566,7 +8563,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -8575,10 +8572,10 @@
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F169" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -8586,7 +8583,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -8595,10 +8592,10 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F170" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -8606,7 +8603,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C171">
         <v>2</v>
@@ -8615,10 +8612,10 @@
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F171" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -8626,7 +8623,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -8635,10 +8632,10 @@
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F172" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8646,7 +8643,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -8655,10 +8652,10 @@
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F173" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8666,7 +8663,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -8675,10 +8672,10 @@
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F174" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8686,7 +8683,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -8695,10 +8692,10 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F175" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -8706,7 +8703,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -8715,10 +8712,10 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F176" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8726,7 +8723,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -8735,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F177" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -8746,7 +8743,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -8755,10 +8752,10 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F178" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8766,7 +8763,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -8775,10 +8772,10 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F179" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8786,7 +8783,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -8795,10 +8792,10 @@
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F180" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8806,7 +8803,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C181">
         <v>2</v>
@@ -8815,10 +8812,10 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F181" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8826,7 +8823,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C182">
         <v>2</v>
@@ -8835,10 +8832,10 @@
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F182" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8846,7 +8843,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C183">
         <v>2</v>
@@ -8855,10 +8852,10 @@
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F183" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8866,7 +8863,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -8875,10 +8872,10 @@
         <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F184" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8886,7 +8883,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -8895,10 +8892,10 @@
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F185" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8906,7 +8903,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C186">
         <v>2</v>
@@ -8915,10 +8912,10 @@
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8926,7 +8923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -8935,10 +8932,10 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F187" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -8946,7 +8943,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -8955,10 +8952,10 @@
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F188" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8966,7 +8963,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -8975,10 +8972,10 @@
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F189" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8986,7 +8983,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C190">
         <v>2</v>
@@ -8995,10 +8992,10 @@
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F190" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -9006,7 +9003,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -9015,10 +9012,10 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F191" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -9026,7 +9023,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -9035,10 +9032,10 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F192" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -9046,7 +9043,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -9055,10 +9052,10 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F193" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -9066,7 +9063,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -9075,10 +9072,10 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F194" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -9086,7 +9083,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -9095,10 +9092,10 @@
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F195" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -9106,7 +9103,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -9115,10 +9112,10 @@
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F196" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -9126,7 +9123,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -9135,10 +9132,10 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F197" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -9146,7 +9143,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -9155,10 +9152,10 @@
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F198" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -9166,7 +9163,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -9175,10 +9172,10 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F199" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -9186,7 +9183,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -9195,10 +9192,10 @@
         <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F200" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -9206,7 +9203,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -9215,10 +9212,10 @@
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F201" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
